--- a/Data/StageObject.xlsx
+++ b/Data/StageObject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="22056" windowHeight="10560"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="22050" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="StageObject" sheetId="1" r:id="rId1"/>
@@ -412,14 +412,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -460,7 +460,9 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -475,7 +477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
